--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_INS_LIFE.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_INS_LIFE.xlsx
@@ -79,7 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$B$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$B$1:$I$43</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -44493,9 +44493,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:G41"/>
+  <dimension ref="C1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -44790,14 +44790,28 @@
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="3:7" ht="12.75" thickBot="1">
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
+    <row r="40" spans="3:7" ht="13.15" customHeight="1">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="3:7" ht="12.75" thickTop="1"/>
+    <row r="41" spans="3:7" ht="13.15" customHeight="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="3:7" ht="12.75" thickBot="1">
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="3:7" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C2:C3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_INS_LIFE.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_INS_LIFE.xlsx
@@ -79,7 +79,6 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$B$1:$I$43</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -533,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -568,14 +567,8 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -44495,9 +44491,7 @@
   </sheetPr>
   <dimension ref="C1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -44515,28 +44509,28 @@
   <sheetData>
     <row r="1" spans="3:7" ht="12.75" thickBot="1"/>
     <row r="2" spans="3:7" ht="13.15" customHeight="1" thickTop="1">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="13.15" customHeight="1">
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="3:7" ht="13.15" customHeight="1">
       <c r="C4" s="2"/>
@@ -44633,15 +44627,15 @@
       <c r="C17" s="7"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="3:7" ht="13.15" customHeight="1">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="3:7" ht="13.15" customHeight="1">
       <c r="C19" s="7"/>
@@ -44805,11 +44799,11 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="3:7" ht="12.75" thickBot="1">
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="3:7" ht="12.75" thickTop="1"/>
   </sheetData>
@@ -44822,7 +44816,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.84424019607843137" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16保険会社の登録　生命保険 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10     &amp;D　&amp;T　
          page&amp;P</oddHeader>
